--- a/Bank+Churn+Data_Updated.xlsx
+++ b/Bank+Churn+Data_Updated.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\INTERNSHIP\Bank-churn Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84465E62-2F82-4E34-A792-23DD6E1C4575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C07DAAB-0CD3-44AF-A9AD-41C95E8FED70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="955" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Average Credit Score by Geograp" sheetId="2" r:id="rId1"/>
-    <sheet name=" Average Balance by Gender wi" sheetId="3" r:id="rId2"/>
-    <sheet name="Distribution of Active vs No" sheetId="4" r:id="rId3"/>
-    <sheet name="Churn Rate per Number of Pro" sheetId="5" r:id="rId4"/>
-    <sheet name=" Average Credit Score for Chu" sheetId="6" r:id="rId5"/>
-    <sheet name="t-Test  " sheetId="7" r:id="rId6"/>
-    <sheet name="Quetion &amp; Answer" sheetId="13" r:id="rId7"/>
-    <sheet name="ANOVA" sheetId="12" r:id="rId8"/>
-    <sheet name="Sheet11" sheetId="16" r:id="rId9"/>
-    <sheet name="Sheet13" sheetId="18" r:id="rId10"/>
-    <sheet name="Sheet14" sheetId="19" r:id="rId11"/>
-    <sheet name="Sheet15" sheetId="20" r:id="rId12"/>
-    <sheet name="Dashboard" sheetId="23" r:id="rId13"/>
+    <sheet name="Dashboard" sheetId="23" r:id="rId1"/>
+    <sheet name="Average Credit Score by Geograp" sheetId="2" r:id="rId2"/>
+    <sheet name=" Average Balance by Gender wi" sheetId="3" r:id="rId3"/>
+    <sheet name="Distribution of Active vs No" sheetId="4" r:id="rId4"/>
+    <sheet name="Churn Rate per Number of Pro" sheetId="5" r:id="rId5"/>
+    <sheet name=" Average Credit Score for Chu" sheetId="6" r:id="rId6"/>
+    <sheet name="t-Test  " sheetId="7" r:id="rId7"/>
+    <sheet name="Quetion &amp; Answer" sheetId="13" r:id="rId8"/>
+    <sheet name="ANOVA" sheetId="12" r:id="rId9"/>
+    <sheet name="Sheet11" sheetId="16" r:id="rId10"/>
+    <sheet name="Sheet13" sheetId="18" r:id="rId11"/>
+    <sheet name="Sheet14" sheetId="19" r:id="rId12"/>
+    <sheet name="Sheet15" sheetId="20" r:id="rId13"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId14"/>
   </sheets>
   <externalReferences>
@@ -44,7 +44,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -551,14 +551,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -596,7 +589,7 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -654,7 +647,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -668,7 +661,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -682,7 +675,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -696,7 +689,7 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -754,7 +747,7 @@
         <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -768,7 +761,7 @@
         <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -782,7 +775,7 @@
         <c:idx val="7"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -796,7 +789,7 @@
         <c:idx val="8"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -854,7 +847,7 @@
         <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -868,7 +861,7 @@
         <c:idx val="10"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -882,7 +875,7 @@
         <c:idx val="11"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -896,7 +889,7 @@
         <c:idx val="12"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -954,7 +947,7 @@
         <c:idx val="13"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -968,7 +961,7 @@
         <c:idx val="14"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -982,7 +975,7 @@
         <c:idx val="15"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -996,7 +989,7 @@
         <c:idx val="16"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -1054,7 +1047,7 @@
         <c:idx val="17"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -1068,7 +1061,7 @@
         <c:idx val="18"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -1082,7 +1075,7 @@
         <c:idx val="19"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -1096,7 +1089,7 @@
         <c:idx val="20"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -1154,7 +1147,7 @@
         <c:idx val="21"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -1168,7 +1161,7 @@
         <c:idx val="22"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -1182,7 +1175,7 @@
         <c:idx val="23"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -1196,7 +1189,7 @@
         <c:idx val="24"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -1249,7 +1242,7 @@
         <c:idx val="25"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -1263,7 +1256,7 @@
         <c:idx val="26"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -1277,7 +1270,7 @@
         <c:idx val="27"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln w="19050">
             <a:solidFill>
@@ -1311,7 +1304,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1331,7 +1324,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1351,7 +1344,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1641,7 +1634,7 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1656,7 +1649,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1671,7 +1664,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1686,7 +1679,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1701,7 +1694,7 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1716,7 +1709,7 @@
         <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1731,7 +1724,7 @@
         <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1765,7 +1758,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1830,7 +1823,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2166,7 +2159,7 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2181,7 +2174,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2196,7 +2189,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2211,7 +2204,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2226,7 +2219,7 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2241,7 +2234,7 @@
         <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2256,7 +2249,7 @@
         <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2290,7 +2283,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2349,7 +2342,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2679,7 +2672,7 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2694,13 +2687,10 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2712,7 +2702,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2727,13 +2717,10 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2745,7 +2732,7 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2798,7 +2785,7 @@
         <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2851,7 +2838,7 @@
         <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -2885,7 +2872,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3010,7 +2997,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3376,7 +3363,7 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3391,7 +3378,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3406,7 +3393,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3421,7 +3408,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3436,7 +3423,7 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3451,7 +3438,7 @@
         <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3466,7 +3453,7 @@
         <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3500,7 +3487,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3559,7 +3546,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3888,7 +3875,7 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3944,7 +3931,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -3959,7 +3946,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4015,7 +4002,7 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4027,7 +4014,7 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4039,7 +4026,7 @@
         <c:idx val="5"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4054,7 +4041,7 @@
         <c:idx val="6"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4066,7 +4053,7 @@
         <c:idx val="7"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4078,7 +4065,7 @@
         <c:idx val="8"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4129,7 +4116,7 @@
         <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4141,7 +4128,7 @@
         <c:idx val="10"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4153,7 +4140,7 @@
         <c:idx val="11"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4168,7 +4155,7 @@
         <c:idx val="12"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4180,7 +4167,7 @@
         <c:idx val="13"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4192,7 +4179,7 @@
         <c:idx val="14"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4237,7 +4224,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4255,7 +4242,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -4372,19 +4359,6 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln>
@@ -4392,6 +4366,29 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9DC7-43A4-8C32-BF98C055B7FA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9DC7-43A4-8C32-BF98C055B7FA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4618,7 +4615,7 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4633,7 +4630,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -4649,7 +4646,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4720,7 +4717,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4787,7 +4784,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -5138,13 +5135,10 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5156,13 +5150,10 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5174,13 +5165,10 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5192,13 +5180,10 @@
         <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5211,7 +5196,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5226,7 +5211,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5239,11 +5224,11 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -5253,7 +5238,17 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17405570843436957"/>
+          <c:y val="0.35887274866503754"/>
+          <c:w val="0.56269378524916225"/>
+          <c:h val="0.56075346185175134"/>
+        </c:manualLayout>
+      </c:layout>
       <c:radarChart>
         <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
@@ -5274,7 +5269,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5335,7 +5330,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5678,7 +5673,7 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -5693,7 +5688,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -5708,7 +5703,7 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -5741,7 +5736,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6100,12 +6095,9 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -6140,12 +6132,9 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -6180,12 +6169,9 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -6220,12 +6206,9 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -6260,12 +6243,9 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -6300,12 +6280,9 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -6340,12 +6317,9 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -6380,12 +6354,9 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -6420,12 +6391,9 @@
 </file>
 
 <file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -11045,89 +11013,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Churn">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7ABCBD-54E4-43A4-B24C-31E5A74B8815}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Churn"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6522720" y="2743200"/>
-              <a:ext cx="1828800" cy="2466975"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -11502,8 +11387,8 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="6888480" y="2933700"/>
-          <a:ext cx="2247900" cy="2545080"/>
+          <a:off x="6873240" y="2933700"/>
+          <a:ext cx="2263140" cy="2545080"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11557,8 +11442,8 @@
           </a:graphicData>
         </a:graphic>
       </xdr:graphicFrame>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="26" name="Gender">
@@ -11581,7 +11466,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -11591,8 +11476,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="4732020" y="2901062"/>
-                <a:ext cx="2133600" cy="607121"/>
+                <a:off x="4732020" y="2948940"/>
+                <a:ext cx="2133600" cy="617220"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -11620,8 +11505,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="28" name="Geography">
@@ -11644,7 +11529,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -11654,8 +11539,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="7620" y="719924"/>
-                <a:ext cx="1752600" cy="1146784"/>
+                <a:off x="7620" y="731520"/>
+                <a:ext cx="1752600" cy="1165860"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -11683,8 +11568,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="29" name="Age">
@@ -11707,7 +11592,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -11717,8 +11602,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="30480" y="1874204"/>
-                <a:ext cx="1714500" cy="1011867"/>
+                <a:off x="30480" y="1905001"/>
+                <a:ext cx="1714500" cy="1028699"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -11783,7 +11668,7 @@
           </xdr:cNvGraphicFramePr>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="8282940" y="716280"/>
+          <a:off x="8328660" y="723900"/>
           <a:ext cx="2202180" cy="2209800"/>
         </xdr:xfrm>
         <a:graphic>
@@ -11815,8 +11700,8 @@
           </a:graphicData>
         </a:graphic>
       </xdr:graphicFrame>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="33" name="Tenure">
@@ -11839,7 +11724,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -11849,8 +11734,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="22860" y="2923548"/>
-                <a:ext cx="1729740" cy="891943"/>
+                <a:off x="22860" y="2971800"/>
+                <a:ext cx="1729740" cy="906780"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -11878,8 +11763,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="34" name="Balance">
@@ -11902,7 +11787,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -11912,8 +11797,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="12230100" y="67833"/>
-                <a:ext cx="1744980" cy="599624"/>
+                <a:off x="12230100" y="68581"/>
+                <a:ext cx="1744980" cy="609599"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -11941,8 +11826,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="35" name="IsActiveMember">
@@ -11965,7 +11850,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -11975,8 +11860,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="22860" y="3830482"/>
-                <a:ext cx="1722120" cy="629606"/>
+                <a:off x="22860" y="3893821"/>
+                <a:ext cx="1722120" cy="640079"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -12004,8 +11889,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="37" name="CreditScore_Category">
@@ -12028,7 +11913,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -12038,8 +11923,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="10157460" y="52842"/>
-                <a:ext cx="2026920" cy="637101"/>
+                <a:off x="10157460" y="53341"/>
+                <a:ext cx="2026920" cy="647699"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -12067,8 +11952,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:graphicFrame macro="">
             <xdr:nvGraphicFramePr>
               <xdr:cNvPr id="38" name="NumOfProducts">
@@ -12091,7 +11976,7 @@
             </a:graphic>
           </xdr:graphicFrame>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="0" name=""/>
@@ -12101,8 +11986,8 @@
             </xdr:nvSpPr>
             <xdr:spPr>
               <a:xfrm>
-                <a:off x="0" y="4535041"/>
-                <a:ext cx="1760220" cy="846971"/>
+                <a:off x="0" y="4610100"/>
+                <a:ext cx="1760220" cy="861060"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -12131,6 +12016,89 @@
         </mc:Fallback>
       </mc:AlternateContent>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Churn">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7ABCBD-54E4-43A4-B24C-31E5A74B8815}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Churn"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6522720" y="2743200"/>
+              <a:ext cx="1828800" cy="2466975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -22346,7 +22314,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925901A1-FD5B-47BC-83DC-ABB47B1F8E08}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{925901A1-FD5B-47BC-83DC-ABB47B1F8E08}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -23081,7 +23049,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{085D36D9-FF89-4E05-821D-A04C3496A2EE}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{085D36D9-FF89-4E05-821D-A04C3496A2EE}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -23821,7 +23789,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB6DA8E5-FEEF-42D1-8B73-4C34AF868C87}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BB6DA8E5-FEEF-42D1-8B73-4C34AF868C87}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField dataField="1" showAll="0"/>
@@ -24558,7 +24526,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D172C707-D13E-4ADB-AE55-58249E9CC032}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D172C707-D13E-4ADB-AE55-58249E9CC032}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField dataField="1" showAll="0"/>
@@ -25301,7 +25269,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4BFD4B3-1450-44C9-8075-BAB2048B7B56}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4BFD4B3-1450-44C9-8075-BAB2048B7B56}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -26044,7 +26012,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC081958-BD7B-46E1-A8FF-8E9F623AE7AA}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC081958-BD7B-46E1-A8FF-8E9F623AE7AA}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -26841,7 +26809,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFB3A51F-3EED-4039-9916-8702D604A96E}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AFB3A51F-3EED-4039-9916-8702D604A96E}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -27543,7 +27511,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DEA6C3A-C3BB-4239-BDBF-6E046123E2F8}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3DEA6C3A-C3BB-4239-BDBF-6E046123E2F8}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField dataField="1" showAll="0"/>
@@ -28286,7 +28254,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7364C98-EAAD-445F-A7D1-64FD402C58D9}" name="PivotTable5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7364C98-EAAD-445F-A7D1-64FD402C58D9}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -29769,12 +29737,6 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Churn" xr10:uid="{FB1F07E1-81F4-45B4-9598-C58F77D50D7F}" cache="Slicer_Churn" caption="Churn" rowHeight="234950"/>
-</slicers>
-</file>
-
-<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Gender" xr10:uid="{9278380E-1C9F-4A7F-9F58-CC6275DCEEC9}" cache="Slicer_Gender" caption="Gender" columnCount="2" style="SlicerStyleOther2" rowHeight="234950"/>
   <slicer name="Geography" xr10:uid="{540CE14E-DB1C-4F2F-8F00-5B25D9167BC4}" cache="Slicer_Geography" caption="Geography" rowHeight="234950"/>
   <slicer name="Age" xr10:uid="{B6D16B7B-B52E-44C3-B421-10CEA68E3173}" cache="Slicer_Age" caption="Age" startItem="18" columnCount="3" rowHeight="234950"/>
@@ -29783,6 +29745,12 @@
   <slicer name="IsActiveMember" xr10:uid="{4E39F216-C910-4A8A-BAE8-46629FD91CF2}" cache="Slicer_IsActiveMember" caption="IsActiveMember" columnCount="2" rowHeight="234950"/>
   <slicer name="CreditScore_Category" xr10:uid="{0ABE4A34-D90E-487B-8EFD-307A92BAC438}" cache="Slicer_CreditScore_Category" caption="CreditScore_Category" columnCount="2" rowHeight="234950"/>
   <slicer name="NumOfProducts" xr10:uid="{079BFB49-5F4B-4D8B-BFC0-D977E1CEBF77}" cache="Slicer_NumOfProducts" caption="NumOfProducts" columnCount="2" rowHeight="234950"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Churn" xr10:uid="{FB1F07E1-81F4-45B4-9598-C58F77D50D7F}" cache="Slicer_Churn" caption="Churn" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -30106,65 +30074,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4115623-2521-4A2B-9EEA-59471CEC29CD}">
-  <dimension ref="A3:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54472813-912A-4637-9A11-F55F48CD683C}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A2:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="15">
+        <v>0.51160000000000005</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD96E204-3AB4-406A-A12F-9F6C082086C0}">
+  <dimension ref="A3:D7"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="4">
-        <v>592.54970760233914</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4">
+        <v>74747</v>
+      </c>
+      <c r="C5" s="4">
+        <v>77249</v>
+      </c>
+      <c r="D5" s="4">
+        <v>151996</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4">
-        <v>579.69426751592357</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4">
+        <v>85116</v>
+      </c>
+      <c r="C6" s="4">
+        <v>58596</v>
+      </c>
+      <c r="D6" s="4">
+        <v>143712</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4">
-        <v>600.98837209302326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="4">
-        <v>591.41600000000005</v>
+        <v>159863</v>
+      </c>
+      <c r="C7" s="4">
+        <v>135845</v>
+      </c>
+      <c r="D7" s="4">
+        <v>295708</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E0D30C-811A-4E37-A2C5-C11BCA446157}">
   <dimension ref="A3:B8"/>
   <sheetViews>
@@ -30231,7 +30274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC67DE2-1C74-4D9C-91A4-B6BF031C39D4}">
   <dimension ref="A3:D7"/>
   <sheetViews>
@@ -30316,7 +30359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AC3BE7-C276-4D87-A018-8CADCE88865C}">
   <dimension ref="A3:B7"/>
   <sheetViews>
@@ -30372,44 +30415,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54472813-912A-4637-9A11-F55F48CD683C}">
-  <dimension ref="A2:C3"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="15">
-        <v>0.51160000000000005</v>
-      </c>
-      <c r="C3" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -39390,7 +39395,7 @@
         <v>537</v>
       </c>
       <c r="T130" s="11">
-        <f t="shared" ref="T130:T161" si="25">IF(D301="Germany", C301, "")</f>
+        <f t="shared" ref="T130:T158" si="25">IF(D301="Germany", C301, "")</f>
         <v>507</v>
       </c>
       <c r="U130" s="11">
@@ -41586,7 +41591,7 @@
         <v>370</v>
       </c>
       <c r="U162" s="11">
-        <f t="shared" ref="U162:U193" si="28">IF(D490="Spain", C490, "")</f>
+        <f t="shared" ref="U162:U173" si="28">IF(D490="Spain", C490, "")</f>
         <v>558</v>
       </c>
     </row>
@@ -61019,6 +61024,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4115623-2521-4A2B-9EEA-59471CEC29CD}">
+  <dimension ref="A3:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
+        <v>592.54970760233914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4">
+        <v>579.69426751592357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4">
+        <v>600.98837209302326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4">
+        <v>591.41600000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FC3E46-C191-433D-B0B3-A59F014F7FD6}">
   <dimension ref="A3:D8"/>
   <sheetViews>
@@ -61116,7 +61180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8295B93F-FA14-4938-BFC2-E1CDF5604D30}">
   <dimension ref="A3:D7"/>
   <sheetViews>
@@ -61201,7 +61265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DA152D-DE9D-41BB-83B6-116F6AF43C01}">
   <dimension ref="A3:D9"/>
   <sheetViews>
@@ -61314,7 +61378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EB7CA7-49D1-4530-9777-4A41376EEBA7}">
   <dimension ref="A3:D7"/>
   <sheetViews>
@@ -61398,7 +61462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5896724D-8ACA-4657-9229-7FA1793130BE}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -61546,7 +61610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB0CFEC-F97A-41A8-BE37-4408D5E86929}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -61649,7 +61713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E65ADD71-B24A-476A-AD85-94FFAA212D38}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -61845,97 +61909,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD96E204-3AB4-406A-A12F-9F6C082086C0}">
-  <dimension ref="A3:D7"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4">
-        <v>74747</v>
-      </c>
-      <c r="C5" s="4">
-        <v>77249</v>
-      </c>
-      <c r="D5" s="4">
-        <v>151996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="4">
-        <v>85116</v>
-      </c>
-      <c r="C6" s="4">
-        <v>58596</v>
-      </c>
-      <c r="D6" s="4">
-        <v>143712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="4">
-        <v>159863</v>
-      </c>
-      <c r="C7" s="4">
-        <v>135845</v>
-      </c>
-      <c r="D7" s="4">
-        <v>295708</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
-</worksheet>
 </file>